--- a/data/case1/20/Ploss_14.xlsx
+++ b/data/case1/20/Ploss_14.xlsx
@@ -61,7 +61,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.018926784424177612</v>
+        <v>0.018317932681241711</v>
       </c>
     </row>
   </sheetData>
